--- a/data/trans_camb/P24_6_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P24_6_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,31</t>
+          <t>-3,78</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,68</t>
+          <t>3,33</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,53</t>
+          <t>-5,72</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-7,8</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-5,26</t>
+          <t>-1,53</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-13,07</t>
+          <t>-0,85</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-3,38</t>
+          <t>-2,2</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-2,6</t>
+          <t>-4,25</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-6,56</t>
+          <t>-2,65</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0,83</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-4,52</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-2,24</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,51; 12,62</t>
+          <t>-20,72; 10,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,36; 10,86</t>
+          <t>-13,85; 22,17</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,57; 11,85</t>
+          <t>-22,14; 9,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-21,23; 4,97</t>
+          <t>-15,29; 19,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-18,09; 9,84</t>
+          <t>-17,69; 15,23</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-24,56; -0,94</t>
+          <t>-18,23; 14,23</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-11,94; 5,74</t>
+          <t>-18,34; 13,26</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-11,45; 6,73</t>
+          <t>-21,13; 9,46</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-14,93; 1,93</t>
+          <t>-13,41; 8,74</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-10,8; 13,17</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-14,83; 6,39</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-12,64; 9,92</t>
         </is>
       </c>
     </row>
@@ -738,47 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>26,97%</t>
+          <t>-27,99%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>19,57%</t>
+          <t>24,67%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>17,91%</t>
+          <t>-42,43%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-32,47%</t>
+          <t>5,23%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-21,91%</t>
+          <t>-7,83%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-54,45%</t>
+          <t>-4,38%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-19,86%</t>
+          <t>-11,28%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-15,28%</t>
+          <t>-21,82%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-38,49%</t>
+          <t>-15,65%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>4,91%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-26,66%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-13,2%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-65,27; 363,01</t>
+          <t>-100,0; 316,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-73,43; 304,29</t>
+          <t>-70,2; 559,98</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-72,18; 324,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-67,53; 33,64</t>
+          <t>-75,56; 603,62</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-61,98; 55,12</t>
+          <t>-68,66; 132,59</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-80,31; -2,55</t>
+          <t>-67,03; 129,71</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-56,18; 50,96</t>
+          <t>-68,87; 127,75</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-55,18; 62,18</t>
+          <t>-75,72; 87,58</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-69,41; 16,8</t>
+          <t>-61,31; 85,61</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-48,82; 137,98</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-67,53; 65,77</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-56,7; 96,75</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,83</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>8,08</t>
+          <t>10,92</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>16,25</t>
+          <t>20,77</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,5</t>
+          <t>18,01</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-10,42</t>
+          <t>-8,98</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-8,12</t>
+          <t>-16,05</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,7</t>
+          <t>-10,34</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-1,46</t>
+          <t>2,33</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,86</t>
+          <t>-3,92</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-2,39</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>5,6</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>9,41</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,95; 9,34</t>
+          <t>-11,04; 12,76</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 19,05</t>
+          <t>-3,26; 28,45</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,04; 36,5</t>
+          <t>2,96; 50,84</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-15,6; 11,97</t>
+          <t>-0,46; 49,13</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-24,15; 1,45</t>
+          <t>-27,18; 8,65</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-21,45; 4,5</t>
+          <t>-32,37; -0,23</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-9,75; 8,14</t>
+          <t>-27,04; 7,48</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-9,86; 7,02</t>
+          <t>-16,15; 21,13</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-5,15; 15,44</t>
+          <t>-15,69; 8,14</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-14,75; 8,14</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-8,49; 23,64</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-6,81; 28,04</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>10,72%</t>
+          <t>11,81%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>104,85%</t>
+          <t>132,97%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>210,86%</t>
+          <t>252,96%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-8,75%</t>
+          <t>219,38%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-36,44%</t>
+          <t>-25,6%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-28,39%</t>
+          <t>-45,77%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-3,78%</t>
+          <t>-29,5%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-7,93%</t>
+          <t>6,65%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>20,96%</t>
+          <t>-18,27%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-11,13%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>26,08%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>43,84%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1136,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-67,37; 336,69</t>
+          <t>-75,45; 445,77</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-22,01; 645,71</t>
+          <t>-38,51; 822,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>12,09; 1023,77</t>
+          <t>-6,65; 1827,63</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-46,12; 53,35</t>
+          <t>-23,55; 1762,7</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-66,81; 9,37</t>
+          <t>-62,27; 34,15</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-59,87; 23,1</t>
+          <t>-75,73; 0,69</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-42,62; 60,45</t>
+          <t>-66,11; 29,09</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-43,29; 49,36</t>
+          <t>-36,72; 84,04</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-25,07; 106,11</t>
+          <t>-56,54; 50,86</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-52,44; 52,82</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-36,32; 144,4</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-27,71; 164,02</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-2,17</t>
+          <t>-5,17</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,92</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-2,67</t>
+          <t>-2,43</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-2,06</t>
+          <t>-6,23</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-7,77</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>3,6</t>
+          <t>-5,41</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-2,28</t>
+          <t>7,34</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-5,11</t>
+          <t>5,64</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>-1,16</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-3,43</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>3,35</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0,33</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-13,77; 9,76</t>
+          <t>-20,77; 9,34</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-14,15; 11,17</t>
+          <t>-16,83; 15,15</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-14,0; 8,8</t>
+          <t>-17,68; 13,42</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-12,0; 8,77</t>
+          <t>-20,82; 8,88</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-18,72; 2,36</t>
+          <t>-11,37; 14,82</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-7,55; 14,2</t>
+          <t>-18,34; 7,09</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-10,28; 5,22</t>
+          <t>-6,03; 20,94</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-12,41; 3,12</t>
+          <t>-9,05; 19,03</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-7,61; 7,66</t>
+          <t>-12,1; 7,9</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-14,16; 5,87</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-7,13; 13,1</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-10,36; 9,86</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1344,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-11,21%</t>
+          <t>-21,68%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-9,94%</t>
+          <t>-1,59%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-13,79%</t>
+          <t>-10,18%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-6,57%</t>
+          <t>-26,15%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-24,8%</t>
+          <t>3,91%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>11,48%</t>
+          <t>-18,06%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-8,84%</t>
+          <t>24,5%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-19,8%</t>
+          <t>18,83%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,96%</t>
+          <t>-4,21%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-12,45%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>12,16%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1,18%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1412,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-53,86; 72,15</t>
+          <t>-66,45; 62,88</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-56,27; 84,75</t>
+          <t>-54,53; 100,61</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-54,36; 71,42</t>
+          <t>-58,43; 90,91</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-32,79; 33,13</t>
+          <t>-67,28; 60,96</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-50,1; 10,09</t>
+          <t>-31,69; 68,16</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-20,43; 56,9</t>
+          <t>-50,71; 32,5</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-35,72; 23,26</t>
+          <t>-17,95; 98,31</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-42,74; 13,87</t>
+          <t>-24,33; 83,38</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-26,61; 36,13</t>
+          <t>-36,17; 35,73</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-42,9; 26,62</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-22,13; 57,65</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-31,07; 43,77</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,79</t>
+          <t>4,19</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,52</t>
+          <t>8,93</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5,35</t>
+          <t>7,82</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>16,4</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>8,06</t>
+          <t>4,89</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>9,11</t>
+          <t>5,96</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,57</t>
+          <t>4,47</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>5,93</t>
+          <t>11,32</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>7,15</t>
+          <t>4,56</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>7,21</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>5,81</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>13,35</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,11; 12,35</t>
+          <t>-8,83; 17,1</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,72; 14,32</t>
+          <t>-5,72; 22,13</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,74; 15,76</t>
+          <t>-6,45; 20,96</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-10,25; 10,91</t>
+          <t>1,98; 29,74</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 18,53</t>
+          <t>-9,65; 17,32</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 19,38</t>
+          <t>-8,02; 19,86</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-5,65; 9,11</t>
+          <t>-9,68; 16,97</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 13,28</t>
+          <t>-2,4; 24,61</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,13; 14,91</t>
+          <t>-4,82; 15,01</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-3,4; 17,22</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-4,0; 15,78</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>3,81; 23,89</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>13,46%</t>
+          <t>19,9%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>16,98%</t>
+          <t>42,42%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>25,86%</t>
+          <t>37,18%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>1,33%</t>
+          <t>77,94%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>22,41%</t>
+          <t>12,82%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>25,32%</t>
+          <t>15,62%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>5,39%</t>
+          <t>11,71%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>20,37%</t>
+          <t>29,67%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>24,58%</t>
+          <t>15,08%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>23,83%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>19,21%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>44,12%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1688,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-29,81; 78,35</t>
+          <t>-33,35; 126,5</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-26,32; 94,1</t>
+          <t>-20,67; 154,98</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-20,91; 100,55</t>
+          <t>-25,97; 138,24</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-25,75; 35,53</t>
+          <t>5,46; 203,84</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-7,03; 59,61</t>
+          <t>-22,83; 54,11</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 63,92</t>
+          <t>-17,89; 63,2</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-17,8; 35,21</t>
+          <t>-21,79; 54,42</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-4,92; 51,6</t>
+          <t>-5,95; 77,01</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 59,0</t>
+          <t>-13,58; 60,39</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-10,2; 65,95</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-11,94; 61,81</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>9,59; 94,04</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1760,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-3,46</t>
+          <t>-3,6</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>-0,45</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>5,73</t>
+          <t>12,86</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>11,76</t>
+          <t>12,15</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>19,19</t>
+          <t>5,41</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>21,11</t>
+          <t>12,61</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>3,74</t>
+          <t>18,56</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>9,04</t>
+          <t>11,57</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>13,33</t>
+          <t>0,19</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>4,79</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>15,35</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>12,55</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1828,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-14,34; 7,42</t>
+          <t>-18,02; 8,06</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-10,52; 11,53</t>
+          <t>-14,76; 11,71</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 19,05</t>
+          <t>-2,91; 27,54</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 25,57</t>
+          <t>-3,61; 27,43</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>6,18; 31,81</t>
+          <t>-13,88; 23,67</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>8,06; 34,78</t>
+          <t>-8,17; 31,18</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-4,95; 13,05</t>
+          <t>-2,68; 36,84</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,07; 17,59</t>
+          <t>-8,38; 30,42</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>4,43; 22,53</t>
+          <t>-10,68; 11,77</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-6,92; 16,26</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>2,78; 27,68</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>0,81; 25,45</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1896,62 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-15,03%</t>
+          <t>-19,86%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-0,25%</t>
+          <t>-2,47%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>24,91%</t>
+          <t>70,87%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>35,39%</t>
+          <t>66,94%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>57,74%</t>
+          <t>15,97%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>63,51%</t>
+          <t>37,2%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>13,39%</t>
+          <t>54,77%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>32,31%</t>
+          <t>34,15%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>47,66%</t>
+          <t>0,76%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>19,26%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>61,7%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>50,48%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1964,62 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-50,24; 45,3</t>
+          <t>-70,46; 68,27</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-37,49; 65,81</t>
+          <t>-55,87; 102,18</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-15,51; 113,68</t>
+          <t>-16,03; 237,99</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-4,91; 98,95</t>
+          <t>-16,22; 230,4</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>15,68; 119,81</t>
+          <t>-31,21; 102,67</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>19,67; 137,65</t>
+          <t>-19,28; 136,04</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-15,55; 55,79</t>
+          <t>-6,61; 158,64</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 74,42</t>
+          <t>-20,06; 126,75</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>13,68; 95,55</t>
+          <t>-35,59; 62,62</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-23,01; 86,05</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>9,69; 155,26</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>2,18; 138,3</t>
         </is>
       </c>
     </row>
@@ -1712,47 +2036,62 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-1,22</t>
+          <t>6,88</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>8,99</t>
+          <t>13,45</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>10,26</t>
+          <t>20,6</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>4,28</t>
+          <t>30,27</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>6,65</t>
+          <t>-4,92</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>6,1</t>
+          <t>10,09</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>2,04</t>
+          <t>5,33</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>8,31</t>
+          <t>17,51</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>8,83</t>
+          <t>0,68</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>11,71</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>12,4</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>24,13</t>
         </is>
       </c>
     </row>
@@ -1765,47 +2104,62 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-12,76; 10,69</t>
+          <t>-8,89; 23,8</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 21,92</t>
+          <t>-4,35; 31,42</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 23,31</t>
+          <t>2,22; 39,95</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-13,33; 19,96</t>
+          <t>11,02; 49,96</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-14,03; 22,05</t>
+          <t>-23,34; 17,39</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-19,09; 24,66</t>
+          <t>-11,28; 31,35</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-9,25; 12,53</t>
+          <t>-14,31; 25,13</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-5,39; 18,86</t>
+          <t>-3,15; 39,88</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-6,85; 20,59</t>
+          <t>-14,19; 15,51</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>-3,55; 26,7</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>-2,56; 27,31</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>8,33; 42,62</t>
         </is>
       </c>
     </row>
@@ -1818,47 +2172,62 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-6,75%</t>
+          <t>47,36%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>49,7%</t>
+          <t>92,57%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>56,73%</t>
+          <t>141,83%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>10,18%</t>
+          <t>208,39%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>15,83%</t>
+          <t>-12,34%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>14,53%</t>
+          <t>25,3%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>6,51%</t>
+          <t>13,36%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>26,52%</t>
+          <t>43,92%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>28,17%</t>
+          <t>2,39%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>41,39%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>43,85%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>85,33%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +2240,62 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-54,45; 88,9</t>
+          <t>-49,63; 374,12</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-16,48; 184,02</t>
+          <t>-22,46; 494,36</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-13,3; 177,15</t>
+          <t>6,28; 584,3</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-26,05; 58,05</t>
+          <t>32,93; 715,45</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-26,64; 68,4</t>
+          <t>-48,67; 60,02</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-36,77; 73,11</t>
+          <t>-20,7; 115,36</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-23,56; 46,84</t>
+          <t>-30,46; 88,4</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-13,54; 71,16</t>
+          <t>-8,22; 150,07</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-19,69; 76,99</t>
+          <t>-40,61; 73,92</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>-9,05; 141,14</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>-6,87; 138,06</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>21,94; 217,93</t>
         </is>
       </c>
     </row>
@@ -1928,47 +2312,62 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>-0,28</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>2,45</t>
+          <t>5,56</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>4,61</t>
+          <t>8,18</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>11,2</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>3,23</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>3,45</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>1,63</t>
+          <t>8,4</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>3,56</t>
+          <t>-0,23</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>2,44</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>5,4</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>9,44</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2380,62 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 4,3</t>
+          <t>-5,99; 6,09</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 7,18</t>
+          <t>-0,63; 12,47</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 9,65</t>
+          <t>1,35; 16,61</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 5,52</t>
+          <t>4,09; 20,72</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-4,27; 6,58</t>
+          <t>-6,6; 6,39</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 8,57</t>
+          <t>-6,38; 6,72</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 3,77</t>
+          <t>-3,57; 10,3</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 5,41</t>
+          <t>1,41; 16,74</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 7,65</t>
+          <t>-5,11; 4,21</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-2,74; 7,15</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>-0,09; 10,24</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>3,79; 15,11</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2448,62 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-2,15%</t>
+          <t>-1,67%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>14,51%</t>
+          <t>32,58%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>27,31%</t>
+          <t>47,92%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>1,16%</t>
+          <t>65,68%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>-0,8%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>9,82%</t>
+          <t>-0,14%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-0,15%</t>
+          <t>10,52%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>6,43%</t>
+          <t>25,58%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>14,02%</t>
+          <t>-0,9%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>9,58%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>21,18%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>37,02%</t>
         </is>
       </c>
     </row>
@@ -2087,61 +2516,83 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-26,06; 28,46</t>
+          <t>-30,16; 43,32</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-12,95; 49,4</t>
+          <t>-3,23; 90,09</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 66,86</t>
+          <t>6,52; 111,89</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-13,47; 18,41</t>
+          <t>17,12; 135,76</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-12,19; 21,55</t>
+          <t>-18,31; 21,85</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-7,07; 27,86</t>
+          <t>-17,94; 23,02</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-12,76; 16,39</t>
+          <t>-9,8; 35,02</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-7,29; 23,26</t>
+          <t>3,5; 55,85</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 32,57</t>
+          <t>-17,71; 18,26</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-10,03; 30,36</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>-0,55; 43,26</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>13,22; 64,3</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
